--- a/Result.xlsx
+++ b/Result.xlsx
@@ -20,6 +20,9 @@
     <t>119.3</t>
   </si>
   <si>
+    <t>47.3</t>
+  </si>
+  <si>
     <t>56.4</t>
   </si>
   <si>
@@ -41,31 +44,28 @@
     <t>12.9</t>
   </si>
   <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
     <t>166.2</t>
   </si>
   <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>94.7</t>
-  </si>
-  <si>
-    <t>69.8</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
     <t>66.4</t>
-  </si>
-  <si>
-    <t>47.3</t>
   </si>
 </sst>
 </file>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>91.9</t>
   </si>
@@ -20,52 +20,40 @@
     <t>119.3</t>
   </si>
   <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>62.4</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>94.7</t>
+  </si>
+  <si>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>66.4</t>
+  </si>
+  <si>
     <t>47.3</t>
   </si>
   <si>
     <t>56.4</t>
   </si>
   <si>
-    <t>26.6</t>
-  </si>
-  <si>
     <t>69.9</t>
-  </si>
-  <si>
-    <t>43.4</t>
-  </si>
-  <si>
-    <t>62.4</t>
-  </si>
-  <si>
-    <t>50.2</t>
-  </si>
-  <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>94.7</t>
-  </si>
-  <si>
-    <t>69.8</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>166.2</t>
-  </si>
-  <si>
-    <t>66.4</t>
   </si>
 </sst>
 </file>
@@ -148,62 +136,62 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>91.9</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>50.2</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
   <si>
     <t>94.7</t>
@@ -98,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -136,62 +133,37 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,45 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>91.9</t>
+    <t>21,1</t>
   </si>
   <si>
-    <t>119.3</t>
+    <t>26,6</t>
   </si>
   <si>
-    <t>43.4</t>
+    <t>69,8</t>
   </si>
   <si>
-    <t>62.4</t>
+    <t>69,9</t>
   </si>
   <si>
-    <t>50.2</t>
+    <t>83,5</t>
   </si>
   <si>
-    <t>94.7</t>
+    <t>91,9</t>
   </si>
   <si>
-    <t>69.8</t>
+    <t>94,7</t>
   </si>
   <si>
-    <t>42.1</t>
+    <t>32,4</t>
   </si>
   <si>
-    <t>83.5</t>
+    <t>42,1</t>
   </si>
   <si>
-    <t>66.4</t>
+    <t>43,4</t>
   </si>
   <si>
-    <t>47.3</t>
+    <t>47,3</t>
   </si>
   <si>
-    <t>56.4</t>
+    <t>50,2</t>
   </si>
   <si>
-    <t>69.9</t>
+    <t>56,4</t>
+  </si>
+  <si>
+    <t>62,4</t>
+  </si>
+  <si>
+    <t>66,4</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -166,6 +172,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,51 +12,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+  <si>
+    <t>12,9</t>
+  </si>
+  <si>
+    <t>20,5</t>
+  </si>
+  <si>
+    <t>27,4</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>29,0</t>
+  </si>
+  <si>
+    <t>29,3</t>
+  </si>
+  <si>
+    <t>30,5</t>
+  </si>
+  <si>
+    <t>31,4</t>
+  </si>
+  <si>
+    <t>32,4</t>
+  </si>
+  <si>
+    <t>32,8</t>
+  </si>
+  <si>
+    <t>33,6</t>
+  </si>
   <si>
     <t>21,1</t>
   </si>
   <si>
+    <t>34,6</t>
+  </si>
+  <si>
+    <t>35,1</t>
+  </si>
+  <si>
+    <t>38,0</t>
+  </si>
+  <si>
+    <t>38,1</t>
+  </si>
+  <si>
+    <t>39,3</t>
+  </si>
+  <si>
+    <t>39,4</t>
+  </si>
+  <si>
+    <t>40,7</t>
+  </si>
+  <si>
+    <t>42,1</t>
+  </si>
+  <si>
+    <t>43,4</t>
+  </si>
+  <si>
+    <t>43,7</t>
+  </si>
+  <si>
+    <t>44,7</t>
+  </si>
+  <si>
+    <t>45,6</t>
+  </si>
+  <si>
+    <t>46,0</t>
+  </si>
+  <si>
+    <t>46,4</t>
+  </si>
+  <si>
+    <t>46,6</t>
+  </si>
+  <si>
+    <t>47,3</t>
+  </si>
+  <si>
+    <t>47,6</t>
+  </si>
+  <si>
+    <t>48,6</t>
+  </si>
+  <si>
+    <t>49,0</t>
+  </si>
+  <si>
+    <t>22,1</t>
+  </si>
+  <si>
+    <t>49,7</t>
+  </si>
+  <si>
+    <t>50,2</t>
+  </si>
+  <si>
+    <t>51,9</t>
+  </si>
+  <si>
+    <t>52,2</t>
+  </si>
+  <si>
+    <t>52,3</t>
+  </si>
+  <si>
+    <t>52,4</t>
+  </si>
+  <si>
+    <t>54,2</t>
+  </si>
+  <si>
+    <t>55,6</t>
+  </si>
+  <si>
+    <t>56,4</t>
+  </si>
+  <si>
+    <t>57,4</t>
+  </si>
+  <si>
+    <t>22,4</t>
+  </si>
+  <si>
+    <t>57,5</t>
+  </si>
+  <si>
+    <t>58,5</t>
+  </si>
+  <si>
+    <t>60,3</t>
+  </si>
+  <si>
+    <t>60,5</t>
+  </si>
+  <si>
+    <t>60,7</t>
+  </si>
+  <si>
+    <t>61,4</t>
+  </si>
+  <si>
+    <t>62,4</t>
+  </si>
+  <si>
+    <t>62,8</t>
+  </si>
+  <si>
+    <t>63,4</t>
+  </si>
+  <si>
+    <t>24,3</t>
+  </si>
+  <si>
+    <t>63,6</t>
+  </si>
+  <si>
+    <t>64,2</t>
+  </si>
+  <si>
+    <t>64,8</t>
+  </si>
+  <si>
+    <t>64,9</t>
+  </si>
+  <si>
+    <t>66,4</t>
+  </si>
+  <si>
+    <t>67,2</t>
+  </si>
+  <si>
+    <t>69,7</t>
+  </si>
+  <si>
+    <t>69,8</t>
+  </si>
+  <si>
+    <t>69,9</t>
+  </si>
+  <si>
+    <t>24,6</t>
+  </si>
+  <si>
+    <t>70,3</t>
+  </si>
+  <si>
+    <t>79,4</t>
+  </si>
+  <si>
+    <t>79,6</t>
+  </si>
+  <si>
+    <t>81,1</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>82,8</t>
+  </si>
+  <si>
+    <t>83,5</t>
+  </si>
+  <si>
+    <t>86,6</t>
+  </si>
+  <si>
+    <t>91,9</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>92,1</t>
+  </si>
+  <si>
+    <t>94,0</t>
+  </si>
+  <si>
+    <t>94,7</t>
+  </si>
+  <si>
+    <t>96,5</t>
+  </si>
+  <si>
+    <t>98,1</t>
+  </si>
+  <si>
+    <t>99,8</t>
+  </si>
+  <si>
+    <t>101,2</t>
+  </si>
+  <si>
+    <t>104,0</t>
+  </si>
+  <si>
+    <t>107,4</t>
+  </si>
+  <si>
+    <t>109,3</t>
+  </si>
+  <si>
     <t>26,6</t>
-  </si>
-  <si>
-    <t>69,8</t>
-  </si>
-  <si>
-    <t>69,9</t>
-  </si>
-  <si>
-    <t>83,5</t>
-  </si>
-  <si>
-    <t>91,9</t>
-  </si>
-  <si>
-    <t>94,7</t>
-  </si>
-  <si>
-    <t>32,4</t>
-  </si>
-  <si>
-    <t>42,1</t>
-  </si>
-  <si>
-    <t>43,4</t>
-  </si>
-  <si>
-    <t>47,3</t>
-  </si>
-  <si>
-    <t>50,2</t>
-  </si>
-  <si>
-    <t>56,4</t>
-  </si>
-  <si>
-    <t>62,4</t>
-  </si>
-  <si>
-    <t>66,4</t>
   </si>
 </sst>
 </file>
@@ -101,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,37 +356,412 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
